--- a/BioSTEAM 2.x.x/biorefineries/abm/corn_tables.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/abm/corn_tables.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>Price [$/ton]</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Low pressure steam</t>
   </si>
   <si>
+    <t>Medium pressure steam</t>
+  </si>
+  <si>
     <t>Cooling water</t>
   </si>
   <si>
@@ -94,7 +97,10 @@
     <t>0.23167650080000002 USD/kmol</t>
   </si>
   <si>
-    <t>0.0572 $/kWh</t>
+    <t>0.00131511544 USD/kmol</t>
+  </si>
+  <si>
+    <t>0.07 $/kWh</t>
   </si>
   <si>
     <t>Notes</t>
@@ -515,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -647,7 +653,7 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>0.6993532265589194</v>
@@ -658,91 +664,109 @@
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
       <c r="D12">
-        <v>0</v>
+        <v>2.396112611778771</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.01873640318165215</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14">
-        <v>0.9394625620029444</v>
+        <v>1.190248946001498</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C15">
-        <v>197.76633</v>
+      <c r="C15" t="s">
+        <v>27</v>
       </c>
       <c r="D15">
-        <v>0.0001990681155483385</v>
+        <v>1.1496919465071</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C16">
-        <v>109.0980681</v>
+        <v>197.76633</v>
       </c>
       <c r="D16">
-        <v>11.24073383443105</v>
+        <v>0.0001990681155483385</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C17">
+        <v>109.0980681</v>
+      </c>
+      <c r="D17">
+        <v>11.24073383443105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18">
         <v>508.0236</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>3.039914296187316</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18">
+      <c r="B19" s="1"/>
+      <c r="C19">
         <v>0</v>
       </c>
-      <c r="D18">
-        <v>65.36498013922643</v>
+      <c r="D19">
+        <v>69.18030748469251</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -758,18 +782,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <v>2.3</v>
@@ -777,10 +801,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C3">
         <v>1.38</v>
@@ -788,54 +812,54 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4">
-        <v>0.7212941449037562</v>
+        <v>0.7212961604317575</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C5">
-        <v>0.3606470724518781</v>
+        <v>0.3606480802158787</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6">
-        <v>0.07212941449037563</v>
+        <v>0.07212961604317575</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7">
-        <v>0.3606470724518781</v>
+        <v>0.3606480802158787</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C8">
-        <v>5.194717704297888</v>
+        <v>5.19472193690669</v>
       </c>
     </row>
   </sheetData>
@@ -853,48 +877,48 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C2">
-        <v>18.03235362259391</v>
+        <v>18.03240401079394</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C3">
-        <v>72.12941449037562</v>
+        <v>72.12961604317574</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C4">
-        <v>3.606470724518781</v>
+        <v>3.606480802158787</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C5">
-        <v>75.73588521489441</v>
+        <v>75.73609684533453</v>
       </c>
     </row>
   </sheetData>
